--- a/prisma/ArjunData/20230319_MM_folders/19th Century Composers/Beethoven/Orchestral /Symphonies 1-8.xlsx
+++ b/prisma/ArjunData/20230319_MM_folders/19th Century Composers/Beethoven/Orchestral /Symphonies 1-8.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="147">
   <si>
     <t xml:space="preserve">Composer</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t xml:space="preserve">Allegro con brio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-</t>
   </si>
   <si>
     <t xml:space="preserve">H = 112</t>
@@ -680,11 +683,11 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J58" activeCellId="0" sqref="J58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.88"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.63"/>
@@ -847,10 +850,10 @@
         <v>27</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L4" s="13" t="n">
         <v>14.9</v>
@@ -880,19 +883,19 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L5" s="15" t="n">
         <v>8</v>
@@ -924,19 +927,19 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L6" s="15" t="n">
         <v>10.8</v>
@@ -946,7 +949,7 @@
       </c>
       <c r="N6" s="6"/>
       <c r="O6" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
@@ -968,7 +971,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>23</v>
@@ -977,10 +980,10 @@
         <v>24</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L7" s="5" t="n">
         <v>4.2</v>
@@ -1012,13 +1015,13 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L8" s="13" t="n">
         <v>11.7</v>
@@ -1045,7 +1048,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" s="5" t="n">
         <v>1802</v>
@@ -1069,7 +1072,7 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
@@ -1093,16 +1096,16 @@
         <v>22</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L10" s="13" t="n">
         <v>11.2</v>
@@ -1142,7 +1145,7 @@
         <v>25</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L11" s="16" t="n">
         <v>20</v>
@@ -1174,19 +1177,19 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L12" s="5" t="n">
         <v>6.13</v>
@@ -1216,19 +1219,19 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L13" s="15" t="n">
         <v>10</v>
@@ -1238,7 +1241,7 @@
       </c>
       <c r="N13" s="5"/>
       <c r="O13" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -1260,19 +1263,19 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L14" s="15" t="n">
         <v>10.13</v>
@@ -1301,7 +1304,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C15" s="5" t="n">
         <v>1804</v>
@@ -1324,10 +1327,10 @@
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
@@ -1351,16 +1354,16 @@
         <v>22</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I16" s="11" t="s">
         <v>27</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L16" s="13" t="n">
         <v>12</v>
@@ -1390,19 +1393,19 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L17" s="15" t="n">
         <v>8</v>
@@ -1414,7 +1417,7 @@
         <v>8</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -1436,19 +1439,19 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L18" s="13" t="n">
         <v>11.6</v>
@@ -1460,7 +1463,7 @@
         <v>5.8</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -1484,13 +1487,13 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L19" s="16" t="n">
         <v>15.46</v>
@@ -1520,19 +1523,19 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L20" s="15" t="n">
         <v>10.13</v>
@@ -1564,13 +1567,13 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L21" s="5" t="n">
         <v>7.2</v>
@@ -1602,23 +1605,23 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N22" s="5"/>
       <c r="O22" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
@@ -1637,16 +1640,16 @@
         <v>16</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C23" s="5" t="n">
         <v>1806</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>20</v>
@@ -1661,7 +1664,7 @@
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
@@ -1685,16 +1688,16 @@
         <v>22</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>24</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L24" s="5" t="n">
         <v>4.4</v>
@@ -1726,13 +1729,13 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L25" s="16" t="n">
         <v>21.33</v>
@@ -1764,19 +1767,19 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>24</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L26" s="5" t="n">
         <v>5.6</v>
@@ -1788,7 +1791,7 @@
         <v>11.2</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
@@ -1810,19 +1813,19 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L27" s="5" t="n">
         <v>5</v>
@@ -1832,7 +1835,7 @@
       </c>
       <c r="N27" s="5"/>
       <c r="O27" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
@@ -1856,13 +1859,13 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L28" s="15" t="n">
         <v>8.8</v>
@@ -1874,7 +1877,7 @@
         <v>17.6</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
@@ -1896,19 +1899,19 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L29" s="15" t="n">
         <v>10.66</v>
@@ -1937,16 +1940,16 @@
         <v>16</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C30" s="5" t="n">
         <v>1808</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>20</v>
@@ -1961,7 +1964,7 @@
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
@@ -1985,16 +1988,16 @@
         <v>22</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I31" s="11" t="s">
         <v>27</v>
       </c>
       <c r="J31" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L31" s="5" t="n">
         <v>7.2</v>
@@ -2024,19 +2027,19 @@
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J32" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L32" s="5" t="n">
         <v>6.13</v>
@@ -2070,13 +2073,13 @@
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J33" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L33" s="5" t="n">
         <v>7.73</v>
@@ -2106,19 +2109,19 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L34" s="15" t="n">
         <v>9.6</v>
@@ -2130,7 +2133,7 @@
         <v>19.2</v>
       </c>
       <c r="O34" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
@@ -2152,19 +2155,19 @@
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J35" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L35" s="13" t="n">
         <v>11.2</v>
@@ -2198,13 +2201,13 @@
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J36" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L36" s="15" t="n">
         <v>9.6</v>
@@ -2236,13 +2239,13 @@
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J37" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L37" s="13" t="n">
         <v>11.2</v>
@@ -2276,13 +2279,13 @@
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L38" s="13" t="n">
         <v>14.93</v>
@@ -2292,7 +2295,7 @@
         <v>29.86</v>
       </c>
       <c r="O38" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
@@ -2311,16 +2314,16 @@
         <v>16</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C39" s="5" t="n">
         <v>1808</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>20</v>
@@ -2334,10 +2337,10 @@
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P39" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
@@ -2361,16 +2364,16 @@
         <v>22</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J40" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L40" s="15" t="n">
         <v>8.8</v>
@@ -2402,19 +2405,19 @@
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J41" s="14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L41" s="15" t="n">
         <v>10</v>
@@ -2446,19 +2449,19 @@
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J42" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L42" s="15" t="n">
         <v>10.8</v>
@@ -2492,13 +2495,13 @@
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J43" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L43" s="15" t="n">
         <v>8.8</v>
@@ -2528,19 +2531,19 @@
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J44" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L44" s="13" t="n">
         <v>13.33</v>
@@ -2572,19 +2575,19 @@
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J45" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L45" s="15" t="n">
         <v>9</v>
@@ -2611,16 +2614,16 @@
         <v>16</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C46" s="5" t="n">
         <v>1812</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>20</v>
@@ -2635,7 +2638,7 @@
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
       <c r="P46" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
@@ -2659,16 +2662,16 @@
         <v>22</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J47" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L47" s="5" t="n">
         <v>4.6</v>
@@ -2702,13 +2705,13 @@
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J48" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L48" s="16" t="n">
         <v>15.6</v>
@@ -2740,19 +2743,19 @@
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J49" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L49" s="5" t="n">
         <v>5.06</v>
@@ -2784,19 +2787,19 @@
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J50" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L50" s="5" t="n">
         <v>6.6</v>
@@ -2830,13 +2833,13 @@
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J51" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L51" s="15" t="n">
         <v>8.4</v>
@@ -2868,19 +2871,19 @@
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I52" s="11" t="s">
         <v>27</v>
       </c>
       <c r="J52" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L52" s="15" t="n">
         <v>9.6</v>
@@ -2907,16 +2910,16 @@
         <v>16</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C53" s="5" t="n">
         <v>1812</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>20</v>
@@ -2931,7 +2934,7 @@
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
       <c r="P53" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
@@ -2955,16 +2958,16 @@
         <v>22</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J54" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L54" s="13" t="n">
         <v>13.8</v>
@@ -2996,16 +2999,16 @@
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J55" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K55" s="5" t="s">
         <v>26</v>
@@ -3020,7 +3023,7 @@
         <v>11.73</v>
       </c>
       <c r="O55" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P55" s="5"/>
       <c r="Q55" s="5"/>
@@ -3042,19 +3045,19 @@
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J56" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L56" s="5" t="n">
         <v>6.3</v>
@@ -3066,7 +3069,7 @@
         <v>12.6</v>
       </c>
       <c r="O56" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P56" s="5"/>
       <c r="Q56" s="5"/>
@@ -3088,19 +3091,19 @@
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L57" s="16" t="n">
         <v>16.8</v>
